--- a/Boids/export_none.xlsx
+++ b/Boids/export_none.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Owner\Documents\GitHub\Y3-AoAIiG-Flocking\Boids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5843ABE-E5AA-4608-8CDA-1C81CC728C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A458CA69-51C0-4CF3-BF92-B42493481601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="export" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>Minutes Alive</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>SD</t>
   </si>
 </sst>
 </file>
@@ -712,7 +718,43 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.68585745402095366"/>
+                  <c:y val="0.2985038888888889"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -2350,7 +2392,43 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.67688894759760798"/>
+                  <c:y val="0.29370111111111113"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -3988,7 +4066,43 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.68518022428229863"/>
+                  <c:y val="0.30684527777777776"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -7179,14 +7293,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>3175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>307975</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>174175</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7221,8 +7335,8 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>307975</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>174175</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7251,14 +7365,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>186634</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>307975</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>167134</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7607,10 +7721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:K201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U32" sqref="U32"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7621,7 +7735,7 @@
     <col min="7" max="8" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7647,7 +7761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -7667,15 +7781,22 @@
         <v>212168</v>
       </c>
       <c r="G2">
-        <f>F2/1000</f>
+        <f t="shared" ref="G2:G33" si="0">F2/1000</f>
         <v>212.16800000000001</v>
       </c>
       <c r="H2">
-        <f>G2/60</f>
+        <f t="shared" ref="H2:H33" si="1">G2/60</f>
         <v>3.5361333333333334</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2">
+        <f>AVERAGE(Table1[Seconds Alive])</f>
+        <v>107.99773402999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7695,15 +7816,22 @@
         <v>270557</v>
       </c>
       <c r="G3">
-        <f>F3/1000</f>
+        <f t="shared" si="0"/>
         <v>270.55700000000002</v>
       </c>
       <c r="H3">
-        <f>G3/60</f>
+        <f t="shared" si="1"/>
         <v>4.5092833333333333</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <f>STDEV(Table1[Seconds Alive])</f>
+        <v>82.230585185157238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7723,15 +7851,15 @@
         <v>248587</v>
       </c>
       <c r="G4">
-        <f>F4/1000</f>
+        <f t="shared" si="0"/>
         <v>248.58699999999999</v>
       </c>
       <c r="H4">
-        <f>G4/60</f>
+        <f t="shared" si="1"/>
         <v>4.1431166666666668</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -7751,15 +7879,15 @@
         <v>16559.099999999999</v>
       </c>
       <c r="G5">
-        <f>F5/1000</f>
+        <f t="shared" si="0"/>
         <v>16.559099999999997</v>
       </c>
       <c r="H5">
-        <f>G5/60</f>
+        <f t="shared" si="1"/>
         <v>0.27598499999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7779,15 +7907,15 @@
         <v>19777.900000000001</v>
       </c>
       <c r="G6">
-        <f>F6/1000</f>
+        <f t="shared" si="0"/>
         <v>19.777900000000002</v>
       </c>
       <c r="H6">
-        <f>G6/60</f>
+        <f t="shared" si="1"/>
         <v>0.32963166666666671</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7807,15 +7935,15 @@
         <v>84901.4</v>
       </c>
       <c r="G7">
-        <f>F7/1000</f>
+        <f t="shared" si="0"/>
         <v>84.901399999999995</v>
       </c>
       <c r="H7">
-        <f>G7/60</f>
+        <f t="shared" si="1"/>
         <v>1.4150233333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7835,15 +7963,15 @@
         <v>103399</v>
       </c>
       <c r="G8">
-        <f>F8/1000</f>
+        <f t="shared" si="0"/>
         <v>103.399</v>
       </c>
       <c r="H8">
-        <f>G8/60</f>
+        <f t="shared" si="1"/>
         <v>1.7233166666666666</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -7863,15 +7991,15 @@
         <v>341413</v>
       </c>
       <c r="G9">
-        <f>F9/1000</f>
+        <f t="shared" si="0"/>
         <v>341.41300000000001</v>
       </c>
       <c r="H9">
-        <f>G9/60</f>
+        <f t="shared" si="1"/>
         <v>5.6902166666666671</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -7891,15 +8019,15 @@
         <v>173772</v>
       </c>
       <c r="G10">
-        <f>F10/1000</f>
+        <f t="shared" si="0"/>
         <v>173.77199999999999</v>
       </c>
       <c r="H10">
-        <f>G10/60</f>
+        <f t="shared" si="1"/>
         <v>2.8961999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -7919,15 +8047,15 @@
         <v>80991.100000000006</v>
       </c>
       <c r="G11">
-        <f>F11/1000</f>
+        <f t="shared" si="0"/>
         <v>80.991100000000003</v>
       </c>
       <c r="H11">
-        <f>G11/60</f>
+        <f t="shared" si="1"/>
         <v>1.3498516666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -7947,15 +8075,15 @@
         <v>117896</v>
       </c>
       <c r="G12">
-        <f>F12/1000</f>
+        <f t="shared" si="0"/>
         <v>117.896</v>
       </c>
       <c r="H12">
-        <f>G12/60</f>
+        <f t="shared" si="1"/>
         <v>1.9649333333333334</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -7975,15 +8103,15 @@
         <v>5993.49</v>
       </c>
       <c r="G13">
-        <f>F13/1000</f>
+        <f t="shared" si="0"/>
         <v>5.9934899999999995</v>
       </c>
       <c r="H13">
-        <f>G13/60</f>
+        <f t="shared" si="1"/>
         <v>9.9891499999999994E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -8003,15 +8131,15 @@
         <v>98958.3</v>
       </c>
       <c r="G14">
-        <f>F14/1000</f>
+        <f t="shared" si="0"/>
         <v>98.958300000000008</v>
       </c>
       <c r="H14">
-        <f>G14/60</f>
+        <f t="shared" si="1"/>
         <v>1.6493050000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -8031,15 +8159,15 @@
         <v>178707</v>
       </c>
       <c r="G15">
-        <f>F15/1000</f>
+        <f t="shared" si="0"/>
         <v>178.70699999999999</v>
       </c>
       <c r="H15">
-        <f>G15/60</f>
+        <f t="shared" si="1"/>
         <v>2.97845</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -8059,11 +8187,11 @@
         <v>25615.9</v>
       </c>
       <c r="G16">
-        <f>F16/1000</f>
+        <f t="shared" si="0"/>
         <v>25.6159</v>
       </c>
       <c r="H16">
-        <f>G16/60</f>
+        <f t="shared" si="1"/>
         <v>0.42693166666666665</v>
       </c>
     </row>
@@ -8087,11 +8215,11 @@
         <v>39676.400000000001</v>
       </c>
       <c r="G17">
-        <f>F17/1000</f>
+        <f t="shared" si="0"/>
         <v>39.676400000000001</v>
       </c>
       <c r="H17">
-        <f>G17/60</f>
+        <f t="shared" si="1"/>
         <v>0.66127333333333338</v>
       </c>
     </row>
@@ -8115,11 +8243,11 @@
         <v>15099.4</v>
       </c>
       <c r="G18">
-        <f>F18/1000</f>
+        <f t="shared" si="0"/>
         <v>15.099399999999999</v>
       </c>
       <c r="H18">
-        <f>G18/60</f>
+        <f t="shared" si="1"/>
         <v>0.25165666666666664</v>
       </c>
     </row>
@@ -8143,11 +8271,11 @@
         <v>95643</v>
       </c>
       <c r="G19">
-        <f>F19/1000</f>
+        <f t="shared" si="0"/>
         <v>95.643000000000001</v>
       </c>
       <c r="H19">
-        <f>G19/60</f>
+        <f t="shared" si="1"/>
         <v>1.59405</v>
       </c>
     </row>
@@ -8171,11 +8299,11 @@
         <v>97158.7</v>
       </c>
       <c r="G20">
-        <f>F20/1000</f>
+        <f t="shared" si="0"/>
         <v>97.158699999999996</v>
       </c>
       <c r="H20">
-        <f>G20/60</f>
+        <f t="shared" si="1"/>
         <v>1.6193116666666667</v>
       </c>
     </row>
@@ -8199,11 +8327,11 @@
         <v>55205.7</v>
       </c>
       <c r="G21">
-        <f>F21/1000</f>
+        <f t="shared" si="0"/>
         <v>55.2057</v>
       </c>
       <c r="H21">
-        <f>G21/60</f>
+        <f t="shared" si="1"/>
         <v>0.920095</v>
       </c>
     </row>
@@ -8227,11 +8355,11 @@
         <v>17145.099999999999</v>
       </c>
       <c r="G22">
-        <f>F22/1000</f>
+        <f t="shared" si="0"/>
         <v>17.145099999999999</v>
       </c>
       <c r="H22">
-        <f>G22/60</f>
+        <f t="shared" si="1"/>
         <v>0.28575166666666668</v>
       </c>
     </row>
@@ -8255,11 +8383,11 @@
         <v>171140</v>
       </c>
       <c r="G23">
-        <f>F23/1000</f>
+        <f t="shared" si="0"/>
         <v>171.14</v>
       </c>
       <c r="H23">
-        <f>G23/60</f>
+        <f t="shared" si="1"/>
         <v>2.8523333333333332</v>
       </c>
     </row>
@@ -8283,11 +8411,11 @@
         <v>1658.94</v>
       </c>
       <c r="G24">
-        <f>F24/1000</f>
+        <f t="shared" si="0"/>
         <v>1.6589400000000001</v>
       </c>
       <c r="H24">
-        <f>G24/60</f>
+        <f t="shared" si="1"/>
         <v>2.7649E-2</v>
       </c>
     </row>
@@ -8311,11 +8439,11 @@
         <v>23156.9</v>
       </c>
       <c r="G25">
-        <f>F25/1000</f>
+        <f t="shared" si="0"/>
         <v>23.1569</v>
       </c>
       <c r="H25">
-        <f>G25/60</f>
+        <f t="shared" si="1"/>
         <v>0.38594833333333334</v>
       </c>
     </row>
@@ -8339,11 +8467,11 @@
         <v>79733.899999999994</v>
       </c>
       <c r="G26">
-        <f>F26/1000</f>
+        <f t="shared" si="0"/>
         <v>79.733899999999991</v>
       </c>
       <c r="H26">
-        <f>G26/60</f>
+        <f t="shared" si="1"/>
         <v>1.3288983333333333</v>
       </c>
     </row>
@@ -8367,11 +8495,11 @@
         <v>225279</v>
       </c>
       <c r="G27">
-        <f>F27/1000</f>
+        <f t="shared" si="0"/>
         <v>225.279</v>
       </c>
       <c r="H27">
-        <f>G27/60</f>
+        <f t="shared" si="1"/>
         <v>3.7546499999999998</v>
       </c>
     </row>
@@ -8395,11 +8523,11 @@
         <v>72435.399999999994</v>
       </c>
       <c r="G28">
-        <f>F28/1000</f>
+        <f t="shared" si="0"/>
         <v>72.435399999999987</v>
       </c>
       <c r="H28">
-        <f>G28/60</f>
+        <f t="shared" si="1"/>
         <v>1.2072566666666664</v>
       </c>
     </row>
@@ -8423,11 +8551,11 @@
         <v>192293</v>
       </c>
       <c r="G29">
-        <f>F29/1000</f>
+        <f t="shared" si="0"/>
         <v>192.29300000000001</v>
       </c>
       <c r="H29">
-        <f>G29/60</f>
+        <f t="shared" si="1"/>
         <v>3.2048833333333335</v>
       </c>
     </row>
@@ -8451,11 +8579,11 @@
         <v>212370</v>
       </c>
       <c r="G30">
-        <f>F30/1000</f>
+        <f t="shared" si="0"/>
         <v>212.37</v>
       </c>
       <c r="H30">
-        <f>G30/60</f>
+        <f t="shared" si="1"/>
         <v>3.5394999999999999</v>
       </c>
     </row>
@@ -8479,11 +8607,11 @@
         <v>7076.49</v>
       </c>
       <c r="G31">
-        <f>F31/1000</f>
+        <f t="shared" si="0"/>
         <v>7.0764899999999997</v>
       </c>
       <c r="H31">
-        <f>G31/60</f>
+        <f t="shared" si="1"/>
         <v>0.11794149999999999</v>
       </c>
     </row>
@@ -8507,11 +8635,11 @@
         <v>60090.2</v>
       </c>
       <c r="G32">
-        <f>F32/1000</f>
+        <f t="shared" si="0"/>
         <v>60.090199999999996</v>
       </c>
       <c r="H32">
-        <f>G32/60</f>
+        <f t="shared" si="1"/>
         <v>1.0015033333333332</v>
       </c>
     </row>
@@ -8535,11 +8663,11 @@
         <v>249321</v>
       </c>
       <c r="G33">
-        <f>F33/1000</f>
+        <f t="shared" si="0"/>
         <v>249.321</v>
       </c>
       <c r="H33">
-        <f>G33/60</f>
+        <f t="shared" si="1"/>
         <v>4.1553500000000003</v>
       </c>
     </row>
@@ -8563,11 +8691,11 @@
         <v>185431</v>
       </c>
       <c r="G34">
-        <f>F34/1000</f>
+        <f t="shared" ref="G34:G65" si="2">F34/1000</f>
         <v>185.43100000000001</v>
       </c>
       <c r="H34">
-        <f>G34/60</f>
+        <f t="shared" ref="H34:H65" si="3">G34/60</f>
         <v>3.0905166666666668</v>
       </c>
     </row>
@@ -8591,11 +8719,11 @@
         <v>132509</v>
       </c>
       <c r="G35">
-        <f>F35/1000</f>
+        <f t="shared" si="2"/>
         <v>132.50899999999999</v>
       </c>
       <c r="H35">
-        <f>G35/60</f>
+        <f t="shared" si="3"/>
         <v>2.2084833333333331</v>
       </c>
     </row>
@@ -8619,11 +8747,11 @@
         <v>217867</v>
       </c>
       <c r="G36">
-        <f>F36/1000</f>
+        <f t="shared" si="2"/>
         <v>217.86699999999999</v>
       </c>
       <c r="H36">
-        <f>G36/60</f>
+        <f t="shared" si="3"/>
         <v>3.6311166666666663</v>
       </c>
     </row>
@@ -8647,11 +8775,11 @@
         <v>217601</v>
       </c>
       <c r="G37">
-        <f>F37/1000</f>
+        <f t="shared" si="2"/>
         <v>217.601</v>
       </c>
       <c r="H37">
-        <f>G37/60</f>
+        <f t="shared" si="3"/>
         <v>3.6266833333333333</v>
       </c>
     </row>
@@ -8675,11 +8803,11 @@
         <v>77102</v>
       </c>
       <c r="G38">
-        <f>F38/1000</f>
+        <f t="shared" si="2"/>
         <v>77.102000000000004</v>
       </c>
       <c r="H38">
-        <f>G38/60</f>
+        <f t="shared" si="3"/>
         <v>1.2850333333333335</v>
       </c>
     </row>
@@ -8703,11 +8831,11 @@
         <v>47274.3</v>
       </c>
       <c r="G39">
-        <f>F39/1000</f>
+        <f t="shared" si="2"/>
         <v>47.274300000000004</v>
       </c>
       <c r="H39">
-        <f>G39/60</f>
+        <f t="shared" si="3"/>
         <v>0.78790500000000008</v>
       </c>
     </row>
@@ -8731,11 +8859,11 @@
         <v>99818.9</v>
       </c>
       <c r="G40">
-        <f>F40/1000</f>
+        <f t="shared" si="2"/>
         <v>99.818899999999999</v>
       </c>
       <c r="H40">
-        <f>G40/60</f>
+        <f t="shared" si="3"/>
         <v>1.6636483333333334</v>
       </c>
     </row>
@@ -8759,11 +8887,11 @@
         <v>7196.32</v>
       </c>
       <c r="G41">
-        <f>F41/1000</f>
+        <f t="shared" si="2"/>
         <v>7.1963200000000001</v>
       </c>
       <c r="H41">
-        <f>G41/60</f>
+        <f t="shared" si="3"/>
         <v>0.11993866666666667</v>
       </c>
     </row>
@@ -8787,11 +8915,11 @@
         <v>15211.2</v>
       </c>
       <c r="G42">
-        <f>F42/1000</f>
+        <f t="shared" si="2"/>
         <v>15.211200000000002</v>
       </c>
       <c r="H42">
-        <f>G42/60</f>
+        <f t="shared" si="3"/>
         <v>0.25352000000000002</v>
       </c>
     </row>
@@ -8815,11 +8943,11 @@
         <v>12992.1</v>
       </c>
       <c r="G43">
-        <f>F43/1000</f>
+        <f t="shared" si="2"/>
         <v>12.992100000000001</v>
       </c>
       <c r="H43">
-        <f>G43/60</f>
+        <f t="shared" si="3"/>
         <v>0.21653500000000001</v>
       </c>
     </row>
@@ -8843,11 +8971,11 @@
         <v>119958</v>
       </c>
       <c r="G44">
-        <f>F44/1000</f>
+        <f t="shared" si="2"/>
         <v>119.958</v>
       </c>
       <c r="H44">
-        <f>G44/60</f>
+        <f t="shared" si="3"/>
         <v>1.9993000000000001</v>
       </c>
     </row>
@@ -8871,11 +8999,11 @@
         <v>57146</v>
       </c>
       <c r="G45">
-        <f>F45/1000</f>
+        <f t="shared" si="2"/>
         <v>57.146000000000001</v>
       </c>
       <c r="H45">
-        <f>G45/60</f>
+        <f t="shared" si="3"/>
         <v>0.95243333333333335</v>
       </c>
     </row>
@@ -8899,11 +9027,11 @@
         <v>103410</v>
       </c>
       <c r="G46">
-        <f>F46/1000</f>
+        <f t="shared" si="2"/>
         <v>103.41</v>
       </c>
       <c r="H46">
-        <f>G46/60</f>
+        <f t="shared" si="3"/>
         <v>1.7235</v>
       </c>
     </row>
@@ -8927,11 +9055,11 @@
         <v>204768</v>
       </c>
       <c r="G47">
-        <f>F47/1000</f>
+        <f t="shared" si="2"/>
         <v>204.768</v>
       </c>
       <c r="H47">
-        <f>G47/60</f>
+        <f t="shared" si="3"/>
         <v>3.4127999999999998</v>
       </c>
     </row>
@@ -8955,11 +9083,11 @@
         <v>132784</v>
       </c>
       <c r="G48">
-        <f>F48/1000</f>
+        <f t="shared" si="2"/>
         <v>132.78399999999999</v>
       </c>
       <c r="H48">
-        <f>G48/60</f>
+        <f t="shared" si="3"/>
         <v>2.2130666666666667</v>
       </c>
     </row>
@@ -8983,11 +9111,11 @@
         <v>126486</v>
       </c>
       <c r="G49">
-        <f>F49/1000</f>
+        <f t="shared" si="2"/>
         <v>126.486</v>
       </c>
       <c r="H49">
-        <f>G49/60</f>
+        <f t="shared" si="3"/>
         <v>2.1080999999999999</v>
       </c>
     </row>
@@ -9011,11 +9139,11 @@
         <v>31456.5</v>
       </c>
       <c r="G50">
-        <f>F50/1000</f>
+        <f t="shared" si="2"/>
         <v>31.456499999999998</v>
       </c>
       <c r="H50">
-        <f>G50/60</f>
+        <f t="shared" si="3"/>
         <v>0.52427499999999994</v>
       </c>
     </row>
@@ -9039,11 +9167,11 @@
         <v>98532.2</v>
       </c>
       <c r="G51">
-        <f>F51/1000</f>
+        <f t="shared" si="2"/>
         <v>98.532200000000003</v>
       </c>
       <c r="H51">
-        <f>G51/60</f>
+        <f t="shared" si="3"/>
         <v>1.6422033333333335</v>
       </c>
     </row>
@@ -9067,11 +9195,11 @@
         <v>141750</v>
       </c>
       <c r="G52">
-        <f>F52/1000</f>
+        <f t="shared" si="2"/>
         <v>141.75</v>
       </c>
       <c r="H52">
-        <f>G52/60</f>
+        <f t="shared" si="3"/>
         <v>2.3624999999999998</v>
       </c>
     </row>
@@ -9095,11 +9223,11 @@
         <v>50532.6</v>
       </c>
       <c r="G53">
-        <f>F53/1000</f>
+        <f t="shared" si="2"/>
         <v>50.532599999999995</v>
       </c>
       <c r="H53">
-        <f>G53/60</f>
+        <f t="shared" si="3"/>
         <v>0.8422099999999999</v>
       </c>
     </row>
@@ -9123,11 +9251,11 @@
         <v>132265</v>
       </c>
       <c r="G54">
-        <f>F54/1000</f>
+        <f t="shared" si="2"/>
         <v>132.26499999999999</v>
       </c>
       <c r="H54">
-        <f>G54/60</f>
+        <f t="shared" si="3"/>
         <v>2.2044166666666665</v>
       </c>
     </row>
@@ -9151,11 +9279,11 @@
         <v>102390</v>
       </c>
       <c r="G55">
-        <f>F55/1000</f>
+        <f t="shared" si="2"/>
         <v>102.39</v>
       </c>
       <c r="H55">
-        <f>G55/60</f>
+        <f t="shared" si="3"/>
         <v>1.7064999999999999</v>
       </c>
     </row>
@@ -9179,11 +9307,11 @@
         <v>127419</v>
       </c>
       <c r="G56">
-        <f>F56/1000</f>
+        <f t="shared" si="2"/>
         <v>127.419</v>
       </c>
       <c r="H56">
-        <f>G56/60</f>
+        <f t="shared" si="3"/>
         <v>2.12365</v>
       </c>
     </row>
@@ -9207,11 +9335,11 @@
         <v>147528</v>
       </c>
       <c r="G57">
-        <f>F57/1000</f>
+        <f t="shared" si="2"/>
         <v>147.52799999999999</v>
       </c>
       <c r="H57">
-        <f>G57/60</f>
+        <f t="shared" si="3"/>
         <v>2.4587999999999997</v>
       </c>
     </row>
@@ -9235,11 +9363,11 @@
         <v>71169.3</v>
       </c>
       <c r="G58">
-        <f>F58/1000</f>
+        <f t="shared" si="2"/>
         <v>71.169300000000007</v>
       </c>
       <c r="H58">
-        <f>G58/60</f>
+        <f t="shared" si="3"/>
         <v>1.1861550000000001</v>
       </c>
     </row>
@@ -9263,11 +9391,11 @@
         <v>5638.75</v>
       </c>
       <c r="G59">
-        <f>F59/1000</f>
+        <f t="shared" si="2"/>
         <v>5.6387499999999999</v>
       </c>
       <c r="H59">
-        <f>G59/60</f>
+        <f t="shared" si="3"/>
         <v>9.3979166666666669E-2</v>
       </c>
     </row>
@@ -9291,11 +9419,11 @@
         <v>42934.2</v>
       </c>
       <c r="G60">
-        <f>F60/1000</f>
+        <f t="shared" si="2"/>
         <v>42.934199999999997</v>
       </c>
       <c r="H60">
-        <f>G60/60</f>
+        <f t="shared" si="3"/>
         <v>0.71556999999999993</v>
       </c>
     </row>
@@ -9319,11 +9447,11 @@
         <v>89025.600000000006</v>
       </c>
       <c r="G61">
-        <f>F61/1000</f>
+        <f t="shared" si="2"/>
         <v>89.025600000000011</v>
       </c>
       <c r="H61">
-        <f>G61/60</f>
+        <f t="shared" si="3"/>
         <v>1.4837600000000002</v>
       </c>
     </row>
@@ -9347,11 +9475,11 @@
         <v>29448.799999999999</v>
       </c>
       <c r="G62">
-        <f>F62/1000</f>
+        <f t="shared" si="2"/>
         <v>29.448799999999999</v>
       </c>
       <c r="H62">
-        <f>G62/60</f>
+        <f t="shared" si="3"/>
         <v>0.49081333333333332</v>
       </c>
     </row>
@@ -9375,11 +9503,11 @@
         <v>161430</v>
       </c>
       <c r="G63">
-        <f>F63/1000</f>
+        <f t="shared" si="2"/>
         <v>161.43</v>
       </c>
       <c r="H63">
-        <f>G63/60</f>
+        <f t="shared" si="3"/>
         <v>2.6905000000000001</v>
       </c>
     </row>
@@ -9403,11 +9531,11 @@
         <v>65728.5</v>
       </c>
       <c r="G64">
-        <f>F64/1000</f>
+        <f t="shared" si="2"/>
         <v>65.728499999999997</v>
       </c>
       <c r="H64">
-        <f>G64/60</f>
+        <f t="shared" si="3"/>
         <v>1.095475</v>
       </c>
     </row>
@@ -9431,11 +9559,11 @@
         <v>4417.43</v>
       </c>
       <c r="G65">
-        <f>F65/1000</f>
+        <f t="shared" si="2"/>
         <v>4.4174300000000004</v>
       </c>
       <c r="H65">
-        <f>G65/60</f>
+        <f t="shared" si="3"/>
         <v>7.3623833333333347E-2</v>
       </c>
     </row>
@@ -9459,11 +9587,11 @@
         <v>342710</v>
       </c>
       <c r="G66">
-        <f>F66/1000</f>
+        <f t="shared" ref="G66:G97" si="4">F66/1000</f>
         <v>342.71</v>
       </c>
       <c r="H66">
-        <f>G66/60</f>
+        <f t="shared" ref="H66:H97" si="5">G66/60</f>
         <v>5.7118333333333329</v>
       </c>
     </row>
@@ -9487,11 +9615,11 @@
         <v>119273</v>
       </c>
       <c r="G67">
-        <f>F67/1000</f>
+        <f t="shared" si="4"/>
         <v>119.273</v>
       </c>
       <c r="H67">
-        <f>G67/60</f>
+        <f t="shared" si="5"/>
         <v>1.9878833333333332</v>
       </c>
     </row>
@@ -9515,11 +9643,11 @@
         <v>151835</v>
       </c>
       <c r="G68">
-        <f>F68/1000</f>
+        <f t="shared" si="4"/>
         <v>151.83500000000001</v>
       </c>
       <c r="H68">
-        <f>G68/60</f>
+        <f t="shared" si="5"/>
         <v>2.5305833333333334</v>
       </c>
     </row>
@@ -9543,11 +9671,11 @@
         <v>165162</v>
       </c>
       <c r="G69">
-        <f>F69/1000</f>
+        <f t="shared" si="4"/>
         <v>165.16200000000001</v>
       </c>
       <c r="H69">
-        <f>G69/60</f>
+        <f t="shared" si="5"/>
         <v>2.7526999999999999</v>
       </c>
     </row>
@@ -9571,11 +9699,11 @@
         <v>276443</v>
       </c>
       <c r="G70">
-        <f>F70/1000</f>
+        <f t="shared" si="4"/>
         <v>276.44299999999998</v>
       </c>
       <c r="H70">
-        <f>G70/60</f>
+        <f t="shared" si="5"/>
         <v>4.6073833333333329</v>
       </c>
     </row>
@@ -9599,11 +9727,11 @@
         <v>158177</v>
       </c>
       <c r="G71">
-        <f>F71/1000</f>
+        <f t="shared" si="4"/>
         <v>158.17699999999999</v>
       </c>
       <c r="H71">
-        <f>G71/60</f>
+        <f t="shared" si="5"/>
         <v>2.6362833333333331</v>
       </c>
     </row>
@@ -9627,11 +9755,11 @@
         <v>202692</v>
       </c>
       <c r="G72">
-        <f>F72/1000</f>
+        <f t="shared" si="4"/>
         <v>202.69200000000001</v>
       </c>
       <c r="H72">
-        <f>G72/60</f>
+        <f t="shared" si="5"/>
         <v>3.3782000000000001</v>
       </c>
     </row>
@@ -9655,11 +9783,11 @@
         <v>59755.8</v>
       </c>
       <c r="G73">
-        <f>F73/1000</f>
+        <f t="shared" si="4"/>
         <v>59.755800000000001</v>
       </c>
       <c r="H73">
-        <f>G73/60</f>
+        <f t="shared" si="5"/>
         <v>0.99592999999999998</v>
       </c>
     </row>
@@ -9683,11 +9811,11 @@
         <v>61381.3</v>
       </c>
       <c r="G74">
-        <f>F74/1000</f>
+        <f t="shared" si="4"/>
         <v>61.381300000000003</v>
       </c>
       <c r="H74">
-        <f>G74/60</f>
+        <f t="shared" si="5"/>
         <v>1.0230216666666667</v>
       </c>
     </row>
@@ -9711,11 +9839,11 @@
         <v>13742.6</v>
       </c>
       <c r="G75">
-        <f>F75/1000</f>
+        <f t="shared" si="4"/>
         <v>13.742599999999999</v>
       </c>
       <c r="H75">
-        <f>G75/60</f>
+        <f t="shared" si="5"/>
         <v>0.22904333333333332</v>
       </c>
     </row>
@@ -9739,11 +9867,11 @@
         <v>9929.3799999999992</v>
       </c>
       <c r="G76">
-        <f>F76/1000</f>
+        <f t="shared" si="4"/>
         <v>9.9293799999999983</v>
       </c>
       <c r="H76">
-        <f>G76/60</f>
+        <f t="shared" si="5"/>
         <v>0.16548966666666665</v>
       </c>
     </row>
@@ -9767,11 +9895,11 @@
         <v>76942.2</v>
       </c>
       <c r="G77">
-        <f>F77/1000</f>
+        <f t="shared" si="4"/>
         <v>76.9422</v>
       </c>
       <c r="H77">
-        <f>G77/60</f>
+        <f t="shared" si="5"/>
         <v>1.28237</v>
       </c>
     </row>
@@ -9795,11 +9923,11 @@
         <v>191362</v>
       </c>
       <c r="G78">
-        <f>F78/1000</f>
+        <f t="shared" si="4"/>
         <v>191.36199999999999</v>
       </c>
       <c r="H78">
-        <f>G78/60</f>
+        <f t="shared" si="5"/>
         <v>3.1893666666666665</v>
       </c>
     </row>
@@ -9823,11 +9951,11 @@
         <v>14255.5</v>
       </c>
       <c r="G79">
-        <f>F79/1000</f>
+        <f t="shared" si="4"/>
         <v>14.2555</v>
       </c>
       <c r="H79">
-        <f>G79/60</f>
+        <f t="shared" si="5"/>
         <v>0.23759166666666667</v>
       </c>
     </row>
@@ -9851,11 +9979,11 @@
         <v>184268</v>
       </c>
       <c r="G80">
-        <f>F80/1000</f>
+        <f t="shared" si="4"/>
         <v>184.268</v>
       </c>
       <c r="H80">
-        <f>G80/60</f>
+        <f t="shared" si="5"/>
         <v>3.0711333333333335</v>
       </c>
     </row>
@@ -9879,11 +10007,11 @@
         <v>267237</v>
       </c>
       <c r="G81">
-        <f>F81/1000</f>
+        <f t="shared" si="4"/>
         <v>267.23700000000002</v>
       </c>
       <c r="H81">
-        <f>G81/60</f>
+        <f t="shared" si="5"/>
         <v>4.4539500000000007</v>
       </c>
     </row>
@@ -9907,11 +10035,11 @@
         <v>160720</v>
       </c>
       <c r="G82">
-        <f>F82/1000</f>
+        <f t="shared" si="4"/>
         <v>160.72</v>
       </c>
       <c r="H82">
-        <f>G82/60</f>
+        <f t="shared" si="5"/>
         <v>2.6786666666666665</v>
       </c>
     </row>
@@ -9935,11 +10063,11 @@
         <v>111189</v>
       </c>
       <c r="G83">
-        <f>F83/1000</f>
+        <f t="shared" si="4"/>
         <v>111.18899999999999</v>
       </c>
       <c r="H83">
-        <f>G83/60</f>
+        <f t="shared" si="5"/>
         <v>1.8531499999999999</v>
       </c>
     </row>
@@ -9963,11 +10091,11 @@
         <v>44768.5</v>
       </c>
       <c r="G84">
-        <f>F84/1000</f>
+        <f t="shared" si="4"/>
         <v>44.768500000000003</v>
       </c>
       <c r="H84">
-        <f>G84/60</f>
+        <f t="shared" si="5"/>
         <v>0.7461416666666667</v>
       </c>
     </row>
@@ -9991,11 +10119,11 @@
         <v>135142</v>
       </c>
       <c r="G85">
-        <f>F85/1000</f>
+        <f t="shared" si="4"/>
         <v>135.142</v>
       </c>
       <c r="H85">
-        <f>G85/60</f>
+        <f t="shared" si="5"/>
         <v>2.2523666666666666</v>
       </c>
     </row>
@@ -10019,11 +10147,11 @@
         <v>162954</v>
       </c>
       <c r="G86">
-        <f>F86/1000</f>
+        <f t="shared" si="4"/>
         <v>162.95400000000001</v>
       </c>
       <c r="H86">
-        <f>G86/60</f>
+        <f t="shared" si="5"/>
         <v>2.7159</v>
       </c>
     </row>
@@ -10047,11 +10175,11 @@
         <v>94328.8</v>
       </c>
       <c r="G87">
-        <f>F87/1000</f>
+        <f t="shared" si="4"/>
         <v>94.328800000000001</v>
       </c>
       <c r="H87">
-        <f>G87/60</f>
+        <f t="shared" si="5"/>
         <v>1.5721466666666666</v>
       </c>
     </row>
@@ -10075,11 +10203,11 @@
         <v>201062</v>
       </c>
       <c r="G88">
-        <f>F88/1000</f>
+        <f t="shared" si="4"/>
         <v>201.06200000000001</v>
       </c>
       <c r="H88">
-        <f>G88/60</f>
+        <f t="shared" si="5"/>
         <v>3.3510333333333335</v>
       </c>
     </row>
@@ -10103,11 +10231,11 @@
         <v>127953</v>
       </c>
       <c r="G89">
-        <f>F89/1000</f>
+        <f t="shared" si="4"/>
         <v>127.953</v>
       </c>
       <c r="H89">
-        <f>G89/60</f>
+        <f t="shared" si="5"/>
         <v>2.1325500000000002</v>
       </c>
     </row>
@@ -10131,11 +10259,11 @@
         <v>254389</v>
       </c>
       <c r="G90">
-        <f>F90/1000</f>
+        <f t="shared" si="4"/>
         <v>254.38900000000001</v>
       </c>
       <c r="H90">
-        <f>G90/60</f>
+        <f t="shared" si="5"/>
         <v>4.239816666666667</v>
       </c>
     </row>
@@ -10159,11 +10287,11 @@
         <v>245513</v>
       </c>
       <c r="G91">
-        <f>F91/1000</f>
+        <f t="shared" si="4"/>
         <v>245.51300000000001</v>
       </c>
       <c r="H91">
-        <f>G91/60</f>
+        <f t="shared" si="5"/>
         <v>4.0918833333333335</v>
       </c>
     </row>
@@ -10187,11 +10315,11 @@
         <v>191857</v>
       </c>
       <c r="G92">
-        <f>F92/1000</f>
+        <f t="shared" si="4"/>
         <v>191.857</v>
       </c>
       <c r="H92">
-        <f>G92/60</f>
+        <f t="shared" si="5"/>
         <v>3.1976166666666668</v>
       </c>
     </row>
@@ -10215,11 +10343,11 @@
         <v>38828.5</v>
       </c>
       <c r="G93">
-        <f>F93/1000</f>
+        <f t="shared" si="4"/>
         <v>38.828499999999998</v>
       </c>
       <c r="H93">
-        <f>G93/60</f>
+        <f t="shared" si="5"/>
         <v>0.64714166666666662</v>
       </c>
     </row>
@@ -10243,11 +10371,11 @@
         <v>153951</v>
       </c>
       <c r="G94">
-        <f>F94/1000</f>
+        <f t="shared" si="4"/>
         <v>153.95099999999999</v>
       </c>
       <c r="H94">
-        <f>G94/60</f>
+        <f t="shared" si="5"/>
         <v>2.5658499999999997</v>
       </c>
     </row>
@@ -10271,11 +10399,11 @@
         <v>2860.62</v>
       </c>
       <c r="G95">
-        <f>F95/1000</f>
+        <f t="shared" si="4"/>
         <v>2.8606199999999999</v>
       </c>
       <c r="H95">
-        <f>G95/60</f>
+        <f t="shared" si="5"/>
         <v>4.7676999999999997E-2</v>
       </c>
     </row>
@@ -10299,11 +10427,11 @@
         <v>239715</v>
       </c>
       <c r="G96">
-        <f>F96/1000</f>
+        <f t="shared" si="4"/>
         <v>239.715</v>
       </c>
       <c r="H96">
-        <f>G96/60</f>
+        <f t="shared" si="5"/>
         <v>3.99525</v>
       </c>
     </row>
@@ -10327,11 +10455,11 @@
         <v>6296.99</v>
       </c>
       <c r="G97">
-        <f>F97/1000</f>
+        <f t="shared" si="4"/>
         <v>6.2969900000000001</v>
       </c>
       <c r="H97">
-        <f>G97/60</f>
+        <f t="shared" si="5"/>
         <v>0.10494983333333334</v>
       </c>
     </row>
@@ -10355,11 +10483,11 @@
         <v>114152</v>
       </c>
       <c r="G98">
-        <f>F98/1000</f>
+        <f t="shared" ref="G98:G129" si="6">F98/1000</f>
         <v>114.152</v>
       </c>
       <c r="H98">
-        <f>G98/60</f>
+        <f t="shared" ref="H98:H129" si="7">G98/60</f>
         <v>1.9025333333333334</v>
       </c>
     </row>
@@ -10383,11 +10511,11 @@
         <v>194292</v>
       </c>
       <c r="G99">
-        <f>F99/1000</f>
+        <f t="shared" si="6"/>
         <v>194.292</v>
       </c>
       <c r="H99">
-        <f>G99/60</f>
+        <f t="shared" si="7"/>
         <v>3.2382</v>
       </c>
     </row>
@@ -10411,11 +10539,11 @@
         <v>187463</v>
       </c>
       <c r="G100">
-        <f>F100/1000</f>
+        <f t="shared" si="6"/>
         <v>187.46299999999999</v>
       </c>
       <c r="H100">
-        <f>G100/60</f>
+        <f t="shared" si="7"/>
         <v>3.1243833333333333</v>
       </c>
     </row>
@@ -10439,11 +10567,11 @@
         <v>92135.8</v>
       </c>
       <c r="G101">
-        <f>F101/1000</f>
+        <f t="shared" si="6"/>
         <v>92.135800000000003</v>
       </c>
       <c r="H101">
-        <f>G101/60</f>
+        <f t="shared" si="7"/>
         <v>1.5355966666666667</v>
       </c>
     </row>
@@ -10467,11 +10595,11 @@
         <v>93557.3</v>
       </c>
       <c r="G102">
-        <f>F102/1000</f>
+        <f t="shared" si="6"/>
         <v>93.557299999999998</v>
       </c>
       <c r="H102">
-        <f>G102/60</f>
+        <f t="shared" si="7"/>
         <v>1.5592883333333334</v>
       </c>
     </row>
@@ -10495,11 +10623,11 @@
         <v>207649</v>
       </c>
       <c r="G103">
-        <f>F103/1000</f>
+        <f t="shared" si="6"/>
         <v>207.649</v>
       </c>
       <c r="H103">
-        <f>G103/60</f>
+        <f t="shared" si="7"/>
         <v>3.4608166666666667</v>
       </c>
     </row>
@@ -10523,11 +10651,11 @@
         <v>31917.4</v>
       </c>
       <c r="G104">
-        <f>F104/1000</f>
+        <f t="shared" si="6"/>
         <v>31.917400000000001</v>
       </c>
       <c r="H104">
-        <f>G104/60</f>
+        <f t="shared" si="7"/>
         <v>0.53195666666666663</v>
       </c>
     </row>
@@ -10551,11 +10679,11 @@
         <v>213571</v>
       </c>
       <c r="G105">
-        <f>F105/1000</f>
+        <f t="shared" si="6"/>
         <v>213.571</v>
       </c>
       <c r="H105">
-        <f>G105/60</f>
+        <f t="shared" si="7"/>
         <v>3.5595166666666667</v>
       </c>
     </row>
@@ -10579,11 +10707,11 @@
         <v>56509.5</v>
       </c>
       <c r="G106">
-        <f>F106/1000</f>
+        <f t="shared" si="6"/>
         <v>56.509500000000003</v>
       </c>
       <c r="H106">
-        <f>G106/60</f>
+        <f t="shared" si="7"/>
         <v>0.94182500000000002</v>
       </c>
     </row>
@@ -10607,11 +10735,11 @@
         <v>13635.8</v>
       </c>
       <c r="G107">
-        <f>F107/1000</f>
+        <f t="shared" si="6"/>
         <v>13.6358</v>
       </c>
       <c r="H107">
-        <f>G107/60</f>
+        <f t="shared" si="7"/>
         <v>0.22726333333333332</v>
       </c>
     </row>
@@ -10635,11 +10763,11 @@
         <v>196820</v>
       </c>
       <c r="G108">
-        <f>F108/1000</f>
+        <f t="shared" si="6"/>
         <v>196.82</v>
       </c>
       <c r="H108">
-        <f>G108/60</f>
+        <f t="shared" si="7"/>
         <v>3.2803333333333331</v>
       </c>
     </row>
@@ -10663,11 +10791,11 @@
         <v>10557</v>
       </c>
       <c r="G109">
-        <f>F109/1000</f>
+        <f t="shared" si="6"/>
         <v>10.557</v>
       </c>
       <c r="H109">
-        <f>G109/60</f>
+        <f t="shared" si="7"/>
         <v>0.17595</v>
       </c>
     </row>
@@ -10691,11 +10819,11 @@
         <v>323725</v>
       </c>
       <c r="G110">
-        <f>F110/1000</f>
+        <f t="shared" si="6"/>
         <v>323.72500000000002</v>
       </c>
       <c r="H110">
-        <f>G110/60</f>
+        <f t="shared" si="7"/>
         <v>5.3954166666666667</v>
       </c>
     </row>
@@ -10719,11 +10847,11 @@
         <v>188053</v>
       </c>
       <c r="G111">
-        <f>F111/1000</f>
+        <f t="shared" si="6"/>
         <v>188.053</v>
       </c>
       <c r="H111">
-        <f>G111/60</f>
+        <f t="shared" si="7"/>
         <v>3.1342166666666667</v>
       </c>
     </row>
@@ -10747,11 +10875,11 @@
         <v>40321</v>
       </c>
       <c r="G112">
-        <f>F112/1000</f>
+        <f t="shared" si="6"/>
         <v>40.320999999999998</v>
       </c>
       <c r="H112">
-        <f>G112/60</f>
+        <f t="shared" si="7"/>
         <v>0.6720166666666666</v>
       </c>
     </row>
@@ -10775,11 +10903,11 @@
         <v>87912.2</v>
       </c>
       <c r="G113">
-        <f>F113/1000</f>
+        <f t="shared" si="6"/>
         <v>87.912199999999999</v>
       </c>
       <c r="H113">
-        <f>G113/60</f>
+        <f t="shared" si="7"/>
         <v>1.4652033333333334</v>
       </c>
     </row>
@@ -10803,11 +10931,11 @@
         <v>55709.599999999999</v>
       </c>
       <c r="G114">
-        <f>F114/1000</f>
+        <f t="shared" si="6"/>
         <v>55.709600000000002</v>
       </c>
       <c r="H114">
-        <f>G114/60</f>
+        <f t="shared" si="7"/>
         <v>0.92849333333333339</v>
       </c>
     </row>
@@ -10831,11 +10959,11 @@
         <v>181833</v>
       </c>
       <c r="G115">
-        <f>F115/1000</f>
+        <f t="shared" si="6"/>
         <v>181.833</v>
       </c>
       <c r="H115">
-        <f>G115/60</f>
+        <f t="shared" si="7"/>
         <v>3.0305499999999999</v>
       </c>
     </row>
@@ -10859,11 +10987,11 @@
         <v>28991.599999999999</v>
       </c>
       <c r="G116">
-        <f>F116/1000</f>
+        <f t="shared" si="6"/>
         <v>28.991599999999998</v>
       </c>
       <c r="H116">
-        <f>G116/60</f>
+        <f t="shared" si="7"/>
         <v>0.48319333333333331</v>
       </c>
     </row>
@@ -10887,11 +11015,11 @@
         <v>34756.300000000003</v>
       </c>
       <c r="G117">
-        <f>F117/1000</f>
+        <f t="shared" si="6"/>
         <v>34.756300000000003</v>
       </c>
       <c r="H117">
-        <f>G117/60</f>
+        <f t="shared" si="7"/>
         <v>0.57927166666666674</v>
       </c>
     </row>
@@ -10915,11 +11043,11 @@
         <v>56708.800000000003</v>
       </c>
       <c r="G118">
-        <f>F118/1000</f>
+        <f t="shared" si="6"/>
         <v>56.708800000000004</v>
       </c>
       <c r="H118">
-        <f>G118/60</f>
+        <f t="shared" si="7"/>
         <v>0.94514666666666669</v>
       </c>
     </row>
@@ -10943,11 +11071,11 @@
         <v>234706</v>
       </c>
       <c r="G119">
-        <f>F119/1000</f>
+        <f t="shared" si="6"/>
         <v>234.70599999999999</v>
       </c>
       <c r="H119">
-        <f>G119/60</f>
+        <f t="shared" si="7"/>
         <v>3.9117666666666664</v>
       </c>
     </row>
@@ -10971,11 +11099,11 @@
         <v>182643</v>
       </c>
       <c r="G120">
-        <f>F120/1000</f>
+        <f t="shared" si="6"/>
         <v>182.643</v>
       </c>
       <c r="H120">
-        <f>G120/60</f>
+        <f t="shared" si="7"/>
         <v>3.0440499999999999</v>
       </c>
     </row>
@@ -10999,11 +11127,11 @@
         <v>133878</v>
       </c>
       <c r="G121">
-        <f>F121/1000</f>
+        <f t="shared" si="6"/>
         <v>133.87799999999999</v>
       </c>
       <c r="H121">
-        <f>G121/60</f>
+        <f t="shared" si="7"/>
         <v>2.2312999999999996</v>
       </c>
     </row>
@@ -11027,11 +11155,11 @@
         <v>101.05</v>
       </c>
       <c r="G122">
-        <f>F122/1000</f>
+        <f t="shared" si="6"/>
         <v>0.10105</v>
       </c>
       <c r="H122">
-        <f>G122/60</f>
+        <f t="shared" si="7"/>
         <v>1.6841666666666667E-3</v>
       </c>
     </row>
@@ -11055,11 +11183,11 @@
         <v>897.21699999999998</v>
       </c>
       <c r="G123">
-        <f>F123/1000</f>
+        <f t="shared" si="6"/>
         <v>0.89721699999999993</v>
       </c>
       <c r="H123">
-        <f>G123/60</f>
+        <f t="shared" si="7"/>
         <v>1.4953616666666666E-2</v>
       </c>
     </row>
@@ -11083,11 +11211,11 @@
         <v>20881.5</v>
       </c>
       <c r="G124">
-        <f>F124/1000</f>
+        <f t="shared" si="6"/>
         <v>20.881499999999999</v>
       </c>
       <c r="H124">
-        <f>G124/60</f>
+        <f t="shared" si="7"/>
         <v>0.34802499999999997</v>
       </c>
     </row>
@@ -11111,11 +11239,11 @@
         <v>57580.4</v>
       </c>
       <c r="G125">
-        <f>F125/1000</f>
+        <f t="shared" si="6"/>
         <v>57.580400000000004</v>
       </c>
       <c r="H125">
-        <f>G125/60</f>
+        <f t="shared" si="7"/>
         <v>0.95967333333333338</v>
       </c>
     </row>
@@ -11139,11 +11267,11 @@
         <v>48987</v>
       </c>
       <c r="G126">
-        <f>F126/1000</f>
+        <f t="shared" si="6"/>
         <v>48.987000000000002</v>
       </c>
       <c r="H126">
-        <f>G126/60</f>
+        <f t="shared" si="7"/>
         <v>0.81645000000000001</v>
       </c>
     </row>
@@ -11167,11 +11295,11 @@
         <v>64798.1</v>
       </c>
       <c r="G127">
-        <f>F127/1000</f>
+        <f t="shared" si="6"/>
         <v>64.798100000000005</v>
       </c>
       <c r="H127">
-        <f>G127/60</f>
+        <f t="shared" si="7"/>
         <v>1.0799683333333334</v>
       </c>
     </row>
@@ -11195,11 +11323,11 @@
         <v>16737</v>
       </c>
       <c r="G128">
-        <f>F128/1000</f>
+        <f t="shared" si="6"/>
         <v>16.736999999999998</v>
       </c>
       <c r="H128">
-        <f>G128/60</f>
+        <f t="shared" si="7"/>
         <v>0.27894999999999998</v>
       </c>
     </row>
@@ -11223,11 +11351,11 @@
         <v>52000.2</v>
       </c>
       <c r="G129">
-        <f>F129/1000</f>
+        <f t="shared" si="6"/>
         <v>52.0002</v>
       </c>
       <c r="H129">
-        <f>G129/60</f>
+        <f t="shared" si="7"/>
         <v>0.86666999999999994</v>
       </c>
     </row>
@@ -11251,11 +11379,11 @@
         <v>32734.799999999999</v>
       </c>
       <c r="G130">
-        <f>F130/1000</f>
+        <f t="shared" ref="G130:G161" si="8">F130/1000</f>
         <v>32.7348</v>
       </c>
       <c r="H130">
-        <f>G130/60</f>
+        <f t="shared" ref="H130:H161" si="9">G130/60</f>
         <v>0.54557999999999995</v>
       </c>
     </row>
@@ -11279,11 +11407,11 @@
         <v>174857</v>
       </c>
       <c r="G131">
-        <f>F131/1000</f>
+        <f t="shared" si="8"/>
         <v>174.857</v>
       </c>
       <c r="H131">
-        <f>G131/60</f>
+        <f t="shared" si="9"/>
         <v>2.9142833333333331</v>
       </c>
     </row>
@@ -11307,11 +11435,11 @@
         <v>8579.1299999999992</v>
       </c>
       <c r="G132">
-        <f>F132/1000</f>
+        <f t="shared" si="8"/>
         <v>8.5791299999999993</v>
       </c>
       <c r="H132">
-        <f>G132/60</f>
+        <f t="shared" si="9"/>
         <v>0.14298549999999999</v>
       </c>
     </row>
@@ -11335,11 +11463,11 @@
         <v>4688.2299999999996</v>
       </c>
       <c r="G133">
-        <f>F133/1000</f>
+        <f t="shared" si="8"/>
         <v>4.6882299999999999</v>
       </c>
       <c r="H133">
-        <f>G133/60</f>
+        <f t="shared" si="9"/>
         <v>7.813716666666666E-2</v>
       </c>
     </row>
@@ -11363,11 +11491,11 @@
         <v>7968.45</v>
       </c>
       <c r="G134">
-        <f>F134/1000</f>
+        <f t="shared" si="8"/>
         <v>7.9684499999999998</v>
       </c>
       <c r="H134">
-        <f>G134/60</f>
+        <f t="shared" si="9"/>
         <v>0.13280749999999999</v>
       </c>
     </row>
@@ -11391,11 +11519,11 @@
         <v>86060</v>
       </c>
       <c r="G135">
-        <f>F135/1000</f>
+        <f t="shared" si="8"/>
         <v>86.06</v>
       </c>
       <c r="H135">
-        <f>G135/60</f>
+        <f t="shared" si="9"/>
         <v>1.4343333333333335</v>
       </c>
     </row>
@@ -11419,11 +11547,11 @@
         <v>73965.7</v>
       </c>
       <c r="G136">
-        <f>F136/1000</f>
+        <f t="shared" si="8"/>
         <v>73.965699999999998</v>
       </c>
       <c r="H136">
-        <f>G136/60</f>
+        <f t="shared" si="9"/>
         <v>1.2327616666666665</v>
       </c>
     </row>
@@ -11447,11 +11575,11 @@
         <v>66544.399999999994</v>
       </c>
       <c r="G137">
-        <f>F137/1000</f>
+        <f t="shared" si="8"/>
         <v>66.544399999999996</v>
       </c>
       <c r="H137">
-        <f>G137/60</f>
+        <f t="shared" si="9"/>
         <v>1.1090733333333334</v>
       </c>
     </row>
@@ -11475,11 +11603,11 @@
         <v>231526</v>
       </c>
       <c r="G138">
-        <f>F138/1000</f>
+        <f t="shared" si="8"/>
         <v>231.52600000000001</v>
       </c>
       <c r="H138">
-        <f>G138/60</f>
+        <f t="shared" si="9"/>
         <v>3.8587666666666669</v>
       </c>
     </row>
@@ -11503,11 +11631,11 @@
         <v>81746.399999999994</v>
       </c>
       <c r="G139">
-        <f>F139/1000</f>
+        <f t="shared" si="8"/>
         <v>81.746399999999994</v>
       </c>
       <c r="H139">
-        <f>G139/60</f>
+        <f t="shared" si="9"/>
         <v>1.3624399999999999</v>
       </c>
     </row>
@@ -11531,11 +11659,11 @@
         <v>284995</v>
       </c>
       <c r="G140">
-        <f>F140/1000</f>
+        <f t="shared" si="8"/>
         <v>284.995</v>
       </c>
       <c r="H140">
-        <f>G140/60</f>
+        <f t="shared" si="9"/>
         <v>4.7499166666666666</v>
       </c>
     </row>
@@ -11559,11 +11687,11 @@
         <v>195307</v>
       </c>
       <c r="G141">
-        <f>F141/1000</f>
+        <f t="shared" si="8"/>
         <v>195.30699999999999</v>
       </c>
       <c r="H141">
-        <f>G141/60</f>
+        <f t="shared" si="9"/>
         <v>3.2551166666666664</v>
       </c>
     </row>
@@ -11587,11 +11715,11 @@
         <v>11669.3</v>
       </c>
       <c r="G142">
-        <f>F142/1000</f>
+        <f t="shared" si="8"/>
         <v>11.6693</v>
       </c>
       <c r="H142">
-        <f>G142/60</f>
+        <f t="shared" si="9"/>
         <v>0.19448833333333332</v>
       </c>
     </row>
@@ -11615,11 +11743,11 @@
         <v>4872.18</v>
       </c>
       <c r="G143">
-        <f>F143/1000</f>
+        <f t="shared" si="8"/>
         <v>4.8721800000000002</v>
       </c>
       <c r="H143">
-        <f>G143/60</f>
+        <f t="shared" si="9"/>
         <v>8.1202999999999997E-2</v>
       </c>
     </row>
@@ -11643,11 +11771,11 @@
         <v>25917.8</v>
       </c>
       <c r="G144">
-        <f>F144/1000</f>
+        <f t="shared" si="8"/>
         <v>25.9178</v>
       </c>
       <c r="H144">
-        <f>G144/60</f>
+        <f t="shared" si="9"/>
         <v>0.43196333333333331</v>
       </c>
     </row>
@@ -11671,11 +11799,11 @@
         <v>218242</v>
       </c>
       <c r="G145">
-        <f>F145/1000</f>
+        <f t="shared" si="8"/>
         <v>218.24199999999999</v>
       </c>
       <c r="H145">
-        <f>G145/60</f>
+        <f t="shared" si="9"/>
         <v>3.6373666666666664</v>
       </c>
     </row>
@@ -11699,11 +11827,11 @@
         <v>54041.2</v>
       </c>
       <c r="G146">
-        <f>F146/1000</f>
+        <f t="shared" si="8"/>
         <v>54.041199999999996</v>
       </c>
       <c r="H146">
-        <f>G146/60</f>
+        <f t="shared" si="9"/>
         <v>0.90068666666666664</v>
       </c>
     </row>
@@ -11727,11 +11855,11 @@
         <v>199132</v>
       </c>
       <c r="G147">
-        <f>F147/1000</f>
+        <f t="shared" si="8"/>
         <v>199.13200000000001</v>
       </c>
       <c r="H147">
-        <f>G147/60</f>
+        <f t="shared" si="9"/>
         <v>3.3188666666666666</v>
       </c>
     </row>
@@ -11755,11 +11883,11 @@
         <v>189101</v>
       </c>
       <c r="G148">
-        <f>F148/1000</f>
+        <f t="shared" si="8"/>
         <v>189.101</v>
       </c>
       <c r="H148">
-        <f>G148/60</f>
+        <f t="shared" si="9"/>
         <v>3.1516833333333332</v>
       </c>
     </row>
@@ -11783,11 +11911,11 @@
         <v>105774</v>
       </c>
       <c r="G149">
-        <f>F149/1000</f>
+        <f t="shared" si="8"/>
         <v>105.774</v>
       </c>
       <c r="H149">
-        <f>G149/60</f>
+        <f t="shared" si="9"/>
         <v>1.7628999999999999</v>
       </c>
     </row>
@@ -11811,11 +11939,11 @@
         <v>52352.3</v>
       </c>
       <c r="G150">
-        <f>F150/1000</f>
+        <f t="shared" si="8"/>
         <v>52.3523</v>
       </c>
       <c r="H150">
-        <f>G150/60</f>
+        <f t="shared" si="9"/>
         <v>0.8725383333333333</v>
       </c>
     </row>
@@ -11839,11 +11967,11 @@
         <v>123835</v>
       </c>
       <c r="G151">
-        <f>F151/1000</f>
+        <f t="shared" si="8"/>
         <v>123.83499999999999</v>
       </c>
       <c r="H151">
-        <f>G151/60</f>
+        <f t="shared" si="9"/>
         <v>2.0639166666666666</v>
       </c>
     </row>
@@ -11867,11 +11995,11 @@
         <v>41664.6</v>
       </c>
       <c r="G152">
-        <f>F152/1000</f>
+        <f t="shared" si="8"/>
         <v>41.6646</v>
       </c>
       <c r="H152">
-        <f>G152/60</f>
+        <f t="shared" si="9"/>
         <v>0.69440999999999997</v>
       </c>
     </row>
@@ -11895,11 +12023,11 @@
         <v>107725</v>
       </c>
       <c r="G153">
-        <f>F153/1000</f>
+        <f t="shared" si="8"/>
         <v>107.72499999999999</v>
       </c>
       <c r="H153">
-        <f>G153/60</f>
+        <f t="shared" si="9"/>
         <v>1.7954166666666667</v>
       </c>
     </row>
@@ -11923,11 +12051,11 @@
         <v>43538.7</v>
       </c>
       <c r="G154">
-        <f>F154/1000</f>
+        <f t="shared" si="8"/>
         <v>43.538699999999999</v>
       </c>
       <c r="H154">
-        <f>G154/60</f>
+        <f t="shared" si="9"/>
         <v>0.72564499999999998</v>
       </c>
     </row>
@@ -11951,11 +12079,11 @@
         <v>154348</v>
       </c>
       <c r="G155">
-        <f>F155/1000</f>
+        <f t="shared" si="8"/>
         <v>154.34800000000001</v>
       </c>
       <c r="H155">
-        <f>G155/60</f>
+        <f t="shared" si="9"/>
         <v>2.5724666666666667</v>
       </c>
     </row>
@@ -11979,11 +12107,11 @@
         <v>84536.6</v>
       </c>
       <c r="G156">
-        <f>F156/1000</f>
+        <f t="shared" si="8"/>
         <v>84.536600000000007</v>
       </c>
       <c r="H156">
-        <f>G156/60</f>
+        <f t="shared" si="9"/>
         <v>1.4089433333333334</v>
       </c>
     </row>
@@ -12007,11 +12135,11 @@
         <v>104614</v>
       </c>
       <c r="G157">
-        <f>F157/1000</f>
+        <f t="shared" si="8"/>
         <v>104.614</v>
       </c>
       <c r="H157">
-        <f>G157/60</f>
+        <f t="shared" si="9"/>
         <v>1.7435666666666667</v>
       </c>
     </row>
@@ -12035,11 +12163,11 @@
         <v>317066</v>
       </c>
       <c r="G158">
-        <f>F158/1000</f>
+        <f t="shared" si="8"/>
         <v>317.06599999999997</v>
       </c>
       <c r="H158">
-        <f>G158/60</f>
+        <f t="shared" si="9"/>
         <v>5.2844333333333333</v>
       </c>
     </row>
@@ -12063,11 +12191,11 @@
         <v>45099.5</v>
       </c>
       <c r="G159">
-        <f>F159/1000</f>
+        <f t="shared" si="8"/>
         <v>45.099499999999999</v>
       </c>
       <c r="H159">
-        <f>G159/60</f>
+        <f t="shared" si="9"/>
         <v>0.75165833333333332</v>
       </c>
     </row>
@@ -12091,11 +12219,11 @@
         <v>112191</v>
       </c>
       <c r="G160">
-        <f>F160/1000</f>
+        <f t="shared" si="8"/>
         <v>112.191</v>
       </c>
       <c r="H160">
-        <f>G160/60</f>
+        <f t="shared" si="9"/>
         <v>1.86985</v>
       </c>
     </row>
@@ -12119,11 +12247,11 @@
         <v>17912.400000000001</v>
       </c>
       <c r="G161">
-        <f>F161/1000</f>
+        <f t="shared" si="8"/>
         <v>17.912400000000002</v>
       </c>
       <c r="H161">
-        <f>G161/60</f>
+        <f t="shared" si="9"/>
         <v>0.29854000000000003</v>
       </c>
     </row>
@@ -12147,11 +12275,11 @@
         <v>7818.21</v>
       </c>
       <c r="G162">
-        <f>F162/1000</f>
+        <f t="shared" ref="G162:G193" si="10">F162/1000</f>
         <v>7.8182099999999997</v>
       </c>
       <c r="H162">
-        <f>G162/60</f>
+        <f t="shared" ref="H162:H193" si="11">G162/60</f>
         <v>0.13030349999999999</v>
       </c>
     </row>
@@ -12175,11 +12303,11 @@
         <v>81455.899999999994</v>
       </c>
       <c r="G163">
-        <f>F163/1000</f>
+        <f t="shared" si="10"/>
         <v>81.4559</v>
       </c>
       <c r="H163">
-        <f>G163/60</f>
+        <f t="shared" si="11"/>
         <v>1.3575983333333332</v>
       </c>
     </row>
@@ -12203,11 +12331,11 @@
         <v>94658.8</v>
       </c>
       <c r="G164">
-        <f>F164/1000</f>
+        <f t="shared" si="10"/>
         <v>94.658799999999999</v>
       </c>
       <c r="H164">
-        <f>G164/60</f>
+        <f t="shared" si="11"/>
         <v>1.5776466666666666</v>
       </c>
     </row>
@@ -12231,11 +12359,11 @@
         <v>220407</v>
       </c>
       <c r="G165">
-        <f>F165/1000</f>
+        <f t="shared" si="10"/>
         <v>220.40700000000001</v>
       </c>
       <c r="H165">
-        <f>G165/60</f>
+        <f t="shared" si="11"/>
         <v>3.6734500000000003</v>
       </c>
     </row>
@@ -12259,11 +12387,11 @@
         <v>33987.9</v>
       </c>
       <c r="G166">
-        <f>F166/1000</f>
+        <f t="shared" si="10"/>
         <v>33.987900000000003</v>
       </c>
       <c r="H166">
-        <f>G166/60</f>
+        <f t="shared" si="11"/>
         <v>0.56646500000000011</v>
       </c>
     </row>
@@ -12287,11 +12415,11 @@
         <v>28020.400000000001</v>
       </c>
       <c r="G167">
-        <f>F167/1000</f>
+        <f t="shared" si="10"/>
         <v>28.020400000000002</v>
       </c>
       <c r="H167">
-        <f>G167/60</f>
+        <f t="shared" si="11"/>
         <v>0.46700666666666668</v>
       </c>
     </row>
@@ -12315,11 +12443,11 @@
         <v>14144.4</v>
       </c>
       <c r="G168">
-        <f>F168/1000</f>
+        <f t="shared" si="10"/>
         <v>14.144399999999999</v>
       </c>
       <c r="H168">
-        <f>G168/60</f>
+        <f t="shared" si="11"/>
         <v>0.23573999999999998</v>
       </c>
     </row>
@@ -12343,11 +12471,11 @@
         <v>226813</v>
       </c>
       <c r="G169">
-        <f>F169/1000</f>
+        <f t="shared" si="10"/>
         <v>226.81299999999999</v>
       </c>
       <c r="H169">
-        <f>G169/60</f>
+        <f t="shared" si="11"/>
         <v>3.7802166666666666</v>
       </c>
     </row>
@@ -12371,11 +12499,11 @@
         <v>32551.7</v>
       </c>
       <c r="G170">
-        <f>F170/1000</f>
+        <f t="shared" si="10"/>
         <v>32.551700000000004</v>
       </c>
       <c r="H170">
-        <f>G170/60</f>
+        <f t="shared" si="11"/>
         <v>0.54252833333333339</v>
       </c>
     </row>
@@ -12399,11 +12527,11 @@
         <v>143328</v>
       </c>
       <c r="G171">
-        <f>F171/1000</f>
+        <f t="shared" si="10"/>
         <v>143.328</v>
       </c>
       <c r="H171">
-        <f>G171/60</f>
+        <f t="shared" si="11"/>
         <v>2.3888000000000003</v>
       </c>
     </row>
@@ -12427,11 +12555,11 @@
         <v>200468</v>
       </c>
       <c r="G172">
-        <f>F172/1000</f>
+        <f t="shared" si="10"/>
         <v>200.46799999999999</v>
       </c>
       <c r="H172">
-        <f>G172/60</f>
+        <f t="shared" si="11"/>
         <v>3.3411333333333331</v>
       </c>
     </row>
@@ -12455,11 +12583,11 @@
         <v>18408.8</v>
       </c>
       <c r="G173">
-        <f>F173/1000</f>
+        <f t="shared" si="10"/>
         <v>18.408799999999999</v>
       </c>
       <c r="H173">
-        <f>G173/60</f>
+        <f t="shared" si="11"/>
         <v>0.30681333333333333</v>
       </c>
     </row>
@@ -12483,11 +12611,11 @@
         <v>83297.2</v>
       </c>
       <c r="G174">
-        <f>F174/1000</f>
+        <f t="shared" si="10"/>
         <v>83.297200000000004</v>
       </c>
       <c r="H174">
-        <f>G174/60</f>
+        <f t="shared" si="11"/>
         <v>1.3882866666666667</v>
       </c>
     </row>
@@ -12511,11 +12639,11 @@
         <v>1112.1600000000001</v>
       </c>
       <c r="G175">
-        <f>F175/1000</f>
+        <f t="shared" si="10"/>
         <v>1.11216</v>
       </c>
       <c r="H175">
-        <f>G175/60</f>
+        <f t="shared" si="11"/>
         <v>1.8536E-2</v>
       </c>
     </row>
@@ -12539,11 +12667,11 @@
         <v>95733.3</v>
       </c>
       <c r="G176">
-        <f>F176/1000</f>
+        <f t="shared" si="10"/>
         <v>95.7333</v>
       </c>
       <c r="H176">
-        <f>G176/60</f>
+        <f t="shared" si="11"/>
         <v>1.5955550000000001</v>
       </c>
     </row>
@@ -12567,11 +12695,11 @@
         <v>168779</v>
       </c>
       <c r="G177">
-        <f>F177/1000</f>
+        <f t="shared" si="10"/>
         <v>168.779</v>
       </c>
       <c r="H177">
-        <f>G177/60</f>
+        <f t="shared" si="11"/>
         <v>2.8129833333333334</v>
       </c>
     </row>
@@ -12595,11 +12723,11 @@
         <v>105529</v>
       </c>
       <c r="G178">
-        <f>F178/1000</f>
+        <f t="shared" si="10"/>
         <v>105.529</v>
       </c>
       <c r="H178">
-        <f>G178/60</f>
+        <f t="shared" si="11"/>
         <v>1.7588166666666667</v>
       </c>
     </row>
@@ -12623,11 +12751,11 @@
         <v>169138</v>
       </c>
       <c r="G179">
-        <f>F179/1000</f>
+        <f t="shared" si="10"/>
         <v>169.13800000000001</v>
       </c>
       <c r="H179">
-        <f>G179/60</f>
+        <f t="shared" si="11"/>
         <v>2.8189666666666668</v>
       </c>
     </row>
@@ -12651,11 +12779,11 @@
         <v>46342.5</v>
       </c>
       <c r="G180">
-        <f>F180/1000</f>
+        <f t="shared" si="10"/>
         <v>46.342500000000001</v>
       </c>
       <c r="H180">
-        <f>G180/60</f>
+        <f t="shared" si="11"/>
         <v>0.77237500000000003</v>
       </c>
     </row>
@@ -12679,11 +12807,11 @@
         <v>33592.5</v>
       </c>
       <c r="G181">
-        <f>F181/1000</f>
+        <f t="shared" si="10"/>
         <v>33.592500000000001</v>
       </c>
       <c r="H181">
-        <f>G181/60</f>
+        <f t="shared" si="11"/>
         <v>0.55987500000000001</v>
       </c>
     </row>
@@ -12707,11 +12835,11 @@
         <v>77716.100000000006</v>
       </c>
       <c r="G182">
-        <f>F182/1000</f>
+        <f t="shared" si="10"/>
         <v>77.716100000000012</v>
       </c>
       <c r="H182">
-        <f>G182/60</f>
+        <f t="shared" si="11"/>
         <v>1.2952683333333335</v>
       </c>
     </row>
@@ -12735,11 +12863,11 @@
         <v>22343.200000000001</v>
       </c>
       <c r="G183">
-        <f>F183/1000</f>
+        <f t="shared" si="10"/>
         <v>22.3432</v>
       </c>
       <c r="H183">
-        <f>G183/60</f>
+        <f t="shared" si="11"/>
         <v>0.37238666666666664</v>
       </c>
     </row>
@@ -12763,11 +12891,11 @@
         <v>396.96899999999999</v>
       </c>
       <c r="G184">
-        <f>F184/1000</f>
+        <f t="shared" si="10"/>
         <v>0.39696900000000002</v>
       </c>
       <c r="H184">
-        <f>G184/60</f>
+        <f t="shared" si="11"/>
         <v>6.6161500000000003E-3</v>
       </c>
     </row>
@@ -12791,11 +12919,11 @@
         <v>63185</v>
       </c>
       <c r="G185">
-        <f>F185/1000</f>
+        <f t="shared" si="10"/>
         <v>63.185000000000002</v>
       </c>
       <c r="H185">
-        <f>G185/60</f>
+        <f t="shared" si="11"/>
         <v>1.0530833333333334</v>
       </c>
     </row>
@@ -12819,11 +12947,11 @@
         <v>247714</v>
       </c>
       <c r="G186">
-        <f>F186/1000</f>
+        <f t="shared" si="10"/>
         <v>247.714</v>
       </c>
       <c r="H186">
-        <f>G186/60</f>
+        <f t="shared" si="11"/>
         <v>4.1285666666666669</v>
       </c>
     </row>
@@ -12847,11 +12975,11 @@
         <v>75122</v>
       </c>
       <c r="G187">
-        <f>F187/1000</f>
+        <f t="shared" si="10"/>
         <v>75.122</v>
       </c>
       <c r="H187">
-        <f>G187/60</f>
+        <f t="shared" si="11"/>
         <v>1.2520333333333333</v>
       </c>
     </row>
@@ -12875,11 +13003,11 @@
         <v>251229</v>
       </c>
       <c r="G188">
-        <f>F188/1000</f>
+        <f t="shared" si="10"/>
         <v>251.22900000000001</v>
       </c>
       <c r="H188">
-        <f>G188/60</f>
+        <f t="shared" si="11"/>
         <v>4.1871499999999999</v>
       </c>
     </row>
@@ -12903,11 +13031,11 @@
         <v>110058</v>
       </c>
       <c r="G189">
-        <f>F189/1000</f>
+        <f t="shared" si="10"/>
         <v>110.05800000000001</v>
       </c>
       <c r="H189">
-        <f>G189/60</f>
+        <f t="shared" si="11"/>
         <v>1.8343</v>
       </c>
     </row>
@@ -12931,11 +13059,11 @@
         <v>153151</v>
       </c>
       <c r="G190">
-        <f>F190/1000</f>
+        <f t="shared" si="10"/>
         <v>153.15100000000001</v>
       </c>
       <c r="H190">
-        <f>G190/60</f>
+        <f t="shared" si="11"/>
         <v>2.552516666666667</v>
       </c>
     </row>
@@ -12959,11 +13087,11 @@
         <v>22278.1</v>
       </c>
       <c r="G191">
-        <f>F191/1000</f>
+        <f t="shared" si="10"/>
         <v>22.278099999999998</v>
       </c>
       <c r="H191">
-        <f>G191/60</f>
+        <f t="shared" si="11"/>
         <v>0.37130166666666664</v>
       </c>
     </row>
@@ -12987,11 +13115,11 @@
         <v>65729</v>
       </c>
       <c r="G192">
-        <f>F192/1000</f>
+        <f t="shared" si="10"/>
         <v>65.728999999999999</v>
       </c>
       <c r="H192">
-        <f>G192/60</f>
+        <f t="shared" si="11"/>
         <v>1.0954833333333334</v>
       </c>
     </row>
@@ -13015,11 +13143,11 @@
         <v>47323.6</v>
       </c>
       <c r="G193">
-        <f>F193/1000</f>
+        <f t="shared" si="10"/>
         <v>47.323599999999999</v>
       </c>
       <c r="H193">
-        <f>G193/60</f>
+        <f t="shared" si="11"/>
         <v>0.78872666666666669</v>
       </c>
     </row>
@@ -13043,11 +13171,11 @@
         <v>137774</v>
       </c>
       <c r="G194">
-        <f>F194/1000</f>
+        <f t="shared" ref="G194:G225" si="12">F194/1000</f>
         <v>137.774</v>
       </c>
       <c r="H194">
-        <f>G194/60</f>
+        <f t="shared" ref="H194:H225" si="13">G194/60</f>
         <v>2.2962333333333333</v>
       </c>
     </row>
@@ -13071,11 +13199,11 @@
         <v>130274</v>
       </c>
       <c r="G195">
-        <f>F195/1000</f>
+        <f t="shared" si="12"/>
         <v>130.274</v>
       </c>
       <c r="H195">
-        <f>G195/60</f>
+        <f t="shared" si="13"/>
         <v>2.1712333333333333</v>
       </c>
     </row>
@@ -13099,11 +13227,11 @@
         <v>216616</v>
       </c>
       <c r="G196">
-        <f>F196/1000</f>
+        <f t="shared" si="12"/>
         <v>216.61600000000001</v>
       </c>
       <c r="H196">
-        <f>G196/60</f>
+        <f t="shared" si="13"/>
         <v>3.610266666666667</v>
       </c>
     </row>
@@ -13127,11 +13255,11 @@
         <v>179476</v>
       </c>
       <c r="G197">
-        <f>F197/1000</f>
+        <f t="shared" si="12"/>
         <v>179.476</v>
       </c>
       <c r="H197">
-        <f>G197/60</f>
+        <f t="shared" si="13"/>
         <v>2.9912666666666667</v>
       </c>
     </row>
@@ -13155,11 +13283,11 @@
         <v>166179</v>
       </c>
       <c r="G198">
-        <f>F198/1000</f>
+        <f t="shared" si="12"/>
         <v>166.179</v>
       </c>
       <c r="H198">
-        <f>G198/60</f>
+        <f t="shared" si="13"/>
         <v>2.7696499999999999</v>
       </c>
     </row>
@@ -13183,11 +13311,11 @@
         <v>59148.5</v>
       </c>
       <c r="G199">
-        <f>F199/1000</f>
+        <f t="shared" si="12"/>
         <v>59.148499999999999</v>
       </c>
       <c r="H199">
-        <f>G199/60</f>
+        <f t="shared" si="13"/>
         <v>0.98580833333333329</v>
       </c>
     </row>
@@ -13211,11 +13339,11 @@
         <v>45274.9</v>
       </c>
       <c r="G200">
-        <f>F200/1000</f>
+        <f t="shared" si="12"/>
         <v>45.274900000000002</v>
       </c>
       <c r="H200">
-        <f>G200/60</f>
+        <f t="shared" si="13"/>
         <v>0.75458166666666671</v>
       </c>
     </row>
@@ -13239,11 +13367,11 @@
         <v>117194</v>
       </c>
       <c r="G201">
-        <f>F201/1000</f>
+        <f t="shared" si="12"/>
         <v>117.194</v>
       </c>
       <c r="H201">
-        <f>G201/60</f>
+        <f t="shared" si="13"/>
         <v>1.9532333333333334</v>
       </c>
     </row>
